--- a/Livermore1.3/report/XAUUSD_TNX_DXY_total.xlsx
+++ b/Livermore1.3/report/XAUUSD_TNX_DXY_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="561">
   <si>
     <t>日期</t>
   </si>
@@ -2041,6 +2041,9 @@
   </si>
   <si>
     <t>2021-08-13</t>
+  </si>
+  <si>
+    <t>2021-08-16</t>
   </si>
   <si>
     <t>272.46%</t>
@@ -2507,7 +2510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH420"/>
+  <dimension ref="A1:AH421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2683,7 +2686,7 @@
         <v>333</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -8933,7 +8936,7 @@
         <v>365</v>
       </c>
       <c r="AG262" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AH262" s="2"/>
     </row>
@@ -13034,7 +13037,7 @@
       <c r="K419" s="7">
         <v>93.01000000000001</v>
       </c>
-      <c r="Q419" s="2">
+      <c r="Q419" s="10">
         <v>1.36</v>
       </c>
       <c r="X419" s="7">
@@ -13067,6 +13070,28 @@
       </c>
       <c r="AG420" s="2"/>
       <c r="AH420" s="2"/>
+    </row>
+    <row r="421" spans="1:34">
+      <c r="A421" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B421" s="2">
+        <v>81146</v>
+      </c>
+      <c r="E421" s="2">
+        <v>1787.11</v>
+      </c>
+      <c r="K421" s="7">
+        <v>92.62</v>
+      </c>
+      <c r="R421" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="W421" s="2">
+        <v>312.7</v>
+      </c>
+      <c r="AG421" s="2"/>
+      <c r="AH421" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -13083,8 +13108,8 @@
     <mergeCell ref="AE325:AE345"/>
     <mergeCell ref="AE346:AE366"/>
     <mergeCell ref="AE367:AE388"/>
-    <mergeCell ref="AG262:AG420"/>
-    <mergeCell ref="AH3:AH420"/>
+    <mergeCell ref="AG262:AG421"/>
+    <mergeCell ref="AH3:AH421"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">

--- a/Livermore1.3/report/XAUUSD_TNX_DXY_total.xlsx
+++ b/Livermore1.3/report/XAUUSD_TNX_DXY_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="562">
   <si>
     <t>日期</t>
   </si>
@@ -2044,6 +2044,9 @@
   </si>
   <si>
     <t>2021-08-16</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
   </si>
   <si>
     <t>272.46%</t>
@@ -2510,7 +2513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH421"/>
+  <dimension ref="A1:AH422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2686,7 +2689,7 @@
         <v>333</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -8936,7 +8939,7 @@
         <v>365</v>
       </c>
       <c r="AG262" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AH262" s="2"/>
     </row>
@@ -13092,6 +13095,31 @@
       </c>
       <c r="AG421" s="2"/>
       <c r="AH421" s="2"/>
+    </row>
+    <row r="422" spans="1:34">
+      <c r="A422" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B422" s="2">
+        <v>77055</v>
+      </c>
+      <c r="E422" s="7">
+        <v>1785.93</v>
+      </c>
+      <c r="K422" s="2">
+        <v>93.13</v>
+      </c>
+      <c r="R422" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="W422" s="7">
+        <v>311.1</v>
+      </c>
+      <c r="AA422" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG422" s="2"/>
+      <c r="AH422" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -13108,8 +13136,8 @@
     <mergeCell ref="AE325:AE345"/>
     <mergeCell ref="AE346:AE366"/>
     <mergeCell ref="AE367:AE388"/>
-    <mergeCell ref="AG262:AG421"/>
-    <mergeCell ref="AH3:AH421"/>
+    <mergeCell ref="AG262:AG422"/>
+    <mergeCell ref="AH3:AH422"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">

--- a/Livermore1.3/report/XAUUSD_TNX_DXY_total.xlsx
+++ b/Livermore1.3/report/XAUUSD_TNX_DXY_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="574">
   <si>
     <t>日期</t>
   </si>
@@ -2047,6 +2047,93 @@
   </si>
   <si>
     <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>2021-08-18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t>上升趋势结束//[当前危险信号]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;八月平仓预警&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>2021-08-20</t>
+  </si>
+  <si>
+    <t>2021-08-23</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-08-20的上升趋势结束(volume不足)]的[危险信号(volume不足)]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;八月平仓预警&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>2021-08-24</t>
+  </si>
+  <si>
+    <t>2021-08-25</t>
+  </si>
+  <si>
+    <t>2021-08-26</t>
+  </si>
+  <si>
+    <t>2021-08-27</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2021-08-26的上升趋势结束]的[危险信号]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;八月平仓预警&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>2021-08-30</t>
   </si>
   <si>
     <t>272.46%</t>
@@ -2513,7 +2600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH422"/>
+  <dimension ref="A1:AH431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2689,7 +2776,7 @@
         <v>333</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -8939,7 +9026,7 @@
         <v>365</v>
       </c>
       <c r="AG262" s="2" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="AH262" s="2"/>
     </row>
@@ -13110,16 +13197,238 @@
         <v>93.13</v>
       </c>
       <c r="R422" s="4">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W422" s="7">
-        <v>311.1</v>
+        <v>309.1</v>
       </c>
       <c r="AA422" s="2" t="s">
         <v>541</v>
       </c>
       <c r="AG422" s="2"/>
       <c r="AH422" s="2"/>
+    </row>
+    <row r="423" spans="1:34">
+      <c r="A423" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B423" s="2">
+        <v>84200</v>
+      </c>
+      <c r="E423" s="2">
+        <v>1787.45</v>
+      </c>
+      <c r="K423" s="2">
+        <v>93.16</v>
+      </c>
+      <c r="R423" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="W423" s="7">
+        <v>306.45</v>
+      </c>
+      <c r="AA423" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG423" s="2"/>
+      <c r="AH423" s="2"/>
+    </row>
+    <row r="424" spans="1:34">
+      <c r="A424" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B424" s="2">
+        <v>93511</v>
+      </c>
+      <c r="E424" s="7">
+        <v>1779.9</v>
+      </c>
+      <c r="K424" s="10">
+        <v>93.56</v>
+      </c>
+      <c r="R424" s="6">
+        <v>1.24</v>
+      </c>
+      <c r="W424" s="7">
+        <v>303.21</v>
+      </c>
+      <c r="AA424" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG424" s="2"/>
+      <c r="AH424" s="2"/>
+    </row>
+    <row r="425" spans="1:34">
+      <c r="A425" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B425" s="2">
+        <v>74948</v>
+      </c>
+      <c r="E425" s="7">
+        <v>1780.96</v>
+      </c>
+      <c r="K425" s="7">
+        <v>93.45999999999999</v>
+      </c>
+      <c r="R425" s="7">
+        <v>1.24</v>
+      </c>
+      <c r="W425" s="7">
+        <v>304.67</v>
+      </c>
+      <c r="AA425" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG425" s="2"/>
+      <c r="AH425" s="2"/>
+    </row>
+    <row r="426" spans="1:34">
+      <c r="A426" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B426" s="2">
+        <v>73985</v>
+      </c>
+      <c r="E426" s="10">
+        <v>1805.36</v>
+      </c>
+      <c r="K426" s="7">
+        <v>92.98999999999999</v>
+      </c>
+      <c r="R426" s="7">
+        <v>1.27</v>
+      </c>
+      <c r="W426" s="2">
+        <v>316.83</v>
+      </c>
+      <c r="AA426" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="AG426" s="2"/>
+      <c r="AH426" s="2"/>
+    </row>
+    <row r="427" spans="1:34">
+      <c r="A427" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B427" s="2">
+        <v>58228</v>
+      </c>
+      <c r="E427" s="7">
+        <v>1802.97</v>
+      </c>
+      <c r="L427" s="4">
+        <v>92.88</v>
+      </c>
+      <c r="R427" s="7">
+        <v>1.26</v>
+      </c>
+      <c r="W427" s="2">
+        <v>317.9</v>
+      </c>
+      <c r="AG427" s="2"/>
+      <c r="AH427" s="2"/>
+    </row>
+    <row r="428" spans="1:34">
+      <c r="A428" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B428" s="2">
+        <v>73330</v>
+      </c>
+      <c r="F428" s="6">
+        <v>1790.45</v>
+      </c>
+      <c r="L428" s="4">
+        <v>92.83</v>
+      </c>
+      <c r="Q428" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="W428" s="7">
+        <v>309.04</v>
+      </c>
+      <c r="AA428" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG428" s="2"/>
+      <c r="AH428" s="2"/>
+    </row>
+    <row r="429" spans="1:34">
+      <c r="A429" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B429" s="2">
+        <v>66778</v>
+      </c>
+      <c r="F429" s="7">
+        <v>1791.92</v>
+      </c>
+      <c r="L429" s="7">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="Q429" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="W429" s="7">
+        <v>301.57</v>
+      </c>
+      <c r="AA429" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG429" s="2"/>
+      <c r="AH429" s="2"/>
+    </row>
+    <row r="430" spans="1:34">
+      <c r="A430" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B430" s="2">
+        <v>69270</v>
+      </c>
+      <c r="E430" s="2">
+        <v>1818.13</v>
+      </c>
+      <c r="L430" s="4">
+        <v>92.68000000000001</v>
+      </c>
+      <c r="Q430" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="W430" s="2">
+        <v>319.4</v>
+      </c>
+      <c r="AA430" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="AG430" s="2"/>
+      <c r="AH430" s="2"/>
+    </row>
+    <row r="431" spans="1:34">
+      <c r="A431" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B431" s="2">
+        <v>60982</v>
+      </c>
+      <c r="E431" s="7">
+        <v>1810.26</v>
+      </c>
+      <c r="L431" s="7">
+        <v>92.69</v>
+      </c>
+      <c r="Q431" s="7">
+        <v>1.31</v>
+      </c>
+      <c r="W431" s="7">
+        <v>317.93</v>
+      </c>
+      <c r="AA431" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG431" s="2"/>
+      <c r="AH431" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -13136,8 +13445,8 @@
     <mergeCell ref="AE325:AE345"/>
     <mergeCell ref="AE346:AE366"/>
     <mergeCell ref="AE367:AE388"/>
-    <mergeCell ref="AG262:AG422"/>
-    <mergeCell ref="AH3:AH422"/>
+    <mergeCell ref="AG262:AG431"/>
+    <mergeCell ref="AH3:AH431"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
